--- a/Excel/模板.xlsx
+++ b/Excel/模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91182E50-4863-412C-A9D3-C2C621A132AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AB37D-E713-43D0-8960-520FFDDE15EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
@@ -555,7 +555,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
